--- a/elite-data/manifest-templates/EL_template_AssayMicrobiomeTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_AssayMicrobiomeTemplate.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="130">
   <si>
     <t>Filename</t>
   </si>
@@ -363,7 +363,7 @@
     <t>l</t>
   </si>
   <si>
-    <t>sac-seq</t>
+    <t>Qiagen Rneasy Extraction Kit</t>
   </si>
   <si>
     <t>M</t>
@@ -372,7 +372,7 @@
     <t>PCRfree</t>
   </si>
   <si>
-    <t>Smart-seq1</t>
+    <t>sac-seq</t>
   </si>
   <si>
     <t>mg</t>
@@ -381,7 +381,7 @@
     <t>polyAselection</t>
   </si>
   <si>
-    <t>Smart-seq2</t>
+    <t>Smart-seq1</t>
   </si>
   <si>
     <t>mg/dl</t>
@@ -390,7 +390,7 @@
     <t>proximity ligation</t>
   </si>
   <si>
-    <t>Smart-seq4</t>
+    <t>Smart-seq2</t>
   </si>
   <si>
     <t>mg/l</t>
@@ -399,7 +399,7 @@
     <t>rRNAdepletion</t>
   </si>
   <si>
-    <t>SMRTbell</t>
+    <t>Smart-seq4</t>
   </si>
   <si>
     <t>mg/ml</t>
@@ -408,7 +408,7 @@
     <t>snIsoSeq</t>
   </si>
   <si>
-    <t>TruSeq</t>
+    <t>SMRTbell</t>
   </si>
   <si>
     <t>miu/ml</t>
@@ -417,13 +417,16 @@
     <t>SPLITseq</t>
   </si>
   <si>
-    <t>Ultralow Methyl-Seq</t>
+    <t>TruSeq</t>
   </si>
   <si>
     <t>ml</t>
   </si>
   <si>
     <t>STARRSeq</t>
+  </si>
+  <si>
+    <t>Ultralow Methyl-Seq</t>
   </si>
   <si>
     <t>mM</t>
@@ -27923,6 +27926,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="N2:N1000">
       <formula1>Sheet2!$N$2:$N$59</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="P2:P1000">
+      <formula1>Sheet2!$P$2:$P$23</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="S2:S1000">
       <formula1>Sheet2!$S$2:$S$9</formula1>
     </dataValidation>
@@ -27934,9 +27940,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="V2:V1000">
       <formula1>Sheet2!$V$2:$V$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="P2:P1000">
-      <formula1>Sheet2!$P$2:$P$22</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId2"/>
@@ -28307,28 +28310,31 @@
         <v>93</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="N23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23">
-      <c r="N23" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
     <row r="24">
       <c r="N24" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
       <c r="N25" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>57</v>
@@ -28336,32 +28342,32 @@
     </row>
     <row r="26">
       <c r="N26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
       <c r="N27" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
       <c r="N28" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
       <c r="N29" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
       <c r="N30" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31">
       <c r="N31" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
@@ -28381,122 +28387,122 @@
     </row>
     <row r="35">
       <c r="N35" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
       <c r="N36" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37">
       <c r="N37" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
       <c r="N38" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
       <c r="N39" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
       <c r="N40" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41">
       <c r="N41" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42">
       <c r="N42" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43">
       <c r="N43" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44">
       <c r="N44" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
       <c r="N45" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
       <c r="N46" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47">
       <c r="N47" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
       <c r="N48" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49">
       <c r="N49" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
       <c r="N50" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51">
       <c r="N51" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52">
       <c r="N52" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53">
       <c r="N53" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
       <c r="N54" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55">
       <c r="N55" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
       <c r="N56" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
       <c r="N57" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
       <c r="N58" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59">

--- a/elite-data/manifest-templates/EL_template_AssayMicrobiomeTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_AssayMicrobiomeTemplate.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -638,6 +638,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
